--- a/Excel Test/lessonplan.xlsx
+++ b/Excel Test/lessonplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L31002\Documents\GitHub\163048F.github.io\Excel Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -424,6 +424,57 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -477,57 +528,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -813,7 +813,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -824,7 +824,7 @@
     <col min="5" max="5" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -841,30 +841,30 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="44" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A3" s="25"/>
-      <c r="B3" s="28"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="45"/>
       <c r="C3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
     </row>
     <row r="4" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A4" s="25"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
@@ -878,8 +878,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="39" thickBot="1">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A5" s="42"/>
       <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
@@ -890,7 +890,7 @@
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="26.25" thickBot="1">
-      <c r="A6" s="26"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="4" t="s">
         <v>15</v>
       </c>
@@ -903,67 +903,67 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="45">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="51" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="36" t="s">
+      <c r="D7" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="E7" s="55" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A8" s="32"/>
-      <c r="B8" s="35"/>
+      <c r="A8" s="49"/>
+      <c r="B8" s="52"/>
       <c r="C8" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="56"/>
     </row>
     <row r="9" spans="1:5" ht="38.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="49"/>
       <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="38.25">
-      <c r="A10" s="32"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="10" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="58"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A11" s="33"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="11"/>
       <c r="C11" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="39"/>
-    </row>
-    <row r="12" spans="1:5" ht="45.75" thickBot="1">
+      <c r="D11" s="54"/>
+      <c r="E11" s="56"/>
+    </row>
+    <row r="12" spans="1:5" ht="30.75" thickBot="1">
       <c r="A12" s="15"/>
       <c r="B12" s="15" t="s">
         <v>29</v>
@@ -979,77 +979,87 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="46" t="s">
+      <c r="D13" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="48"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A14" s="43"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="27"/>
       <c r="C14" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="47"/>
-      <c r="E14" s="49"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="31"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="32" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="20"/>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="53"/>
-      <c r="E15" s="55" t="s">
+      <c r="D15" s="35"/>
+      <c r="E15" s="37" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A16" s="51"/>
+      <c r="A16" s="33"/>
       <c r="B16" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="56"/>
-    </row>
-    <row r="17" spans="1:5" ht="38.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="57" t="s">
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="38"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="33"/>
+      <c r="B17" s="39" t="s">
         <v>41</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="64.5" thickBot="1">
-      <c r="A18" s="52"/>
-      <c r="B18" s="58"/>
+    <row r="18" spans="1:5" ht="26.25" thickBot="1">
+      <c r="A18" s="34"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="56"/>
+      <c r="D18" s="38"/>
       <c r="E18" s="23" t="s">
         <v>44</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
     <mergeCell ref="A13:A14"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="D13:D14"/>
@@ -1060,16 +1070,6 @@
     <mergeCell ref="E15:E16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="https://polymall.polytechnic.edu.sg/webapps/blackboard/execute/content/file?cmd=view&amp;mode=designer&amp;content_id=_228488_1&amp;course_id=_5866_1"/>
